--- a/biology/Microbiologie/Bryometopidae/Bryometopidae.xlsx
+++ b/biology/Microbiologie/Bryometopidae/Bryometopidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bryometopidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Bryometopida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Bryometopus, dérivé du grec βρυόεις / bryóeis, mousse, et -metopus, que Alphred Kahl, l'auteur de ce taxon, associe au genre Metopus (en) Claparède &amp; Lachmann, 1858[1], autre cilié de la classe des Armophorea (en) ou des Colpodea et de la famille des Metopidae[2], donnant littéralement la signification « Metope des mousses », en référence à l'affinité de ces protistes terrestres pour les mousses, ou les débris végétaux humides.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Bryometopus, dérivé du grec βρυόεις / bryóeis, mousse, et -metopus, que Alphred Kahl, l'auteur de ce taxon, associe au genre Metopus (en) Claparède &amp; Lachmann, 1858, autre cilié de la classe des Armophorea (en) ou des Colpodea et de la famille des Metopidae, donnant littéralement la signification « Metope des mousses », en référence à l'affinité de ces protistes terrestres pour les mousses, ou les débris végétaux humides.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre type Bryometopus a un corps ovoïde uniformément cilié, arrondi aux deux pôles et légèrement réniforme (en forme rein). Son péristome a un contour ovale, couché obliquement sur la face ventrale du corps. On note, près de la région buccale, un AZM[note 1] et une membrane ondulée. Il n'existe qu'une seule vacuole contractile. Le macronoyau peut être ovale ou allongé avec plusieurs micronoyaux. Bryometopus peut être confondu avec deux genres de l'ordre des Heterotrichida :
-Balantidioides[3], qui n'a pas de membrane ondulée ;
-Condylostoma[4], lequel a un large péristome triangulaire et une membrane ondulée très visible[5].</t>
+Balantidioides, qui n'a pas de membrane ondulée ;
+Condylostoma, lequel a un large péristome triangulaire et une membrane ondulée très visible.</t>
         </is>
       </c>
     </row>
@@ -574,10 +590,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres de Bryometopus vivent dans les sols humides, au contact de végétaux vivants ou morts (mousses, débris de feuilles...).
-Comme Jaroschia sumptuosa (famille des Jaroschiidae), Bryometopus triquetrus a été découvert au jardin botanique de la ville de Castelton, au nord de Kingston (Jamaïque), dans une boue de souches de bambou[6].
+Comme Jaroschia sumptuosa (famille des Jaroschiidae), Bryometopus triquetrus a été découvert au jardin botanique de la ville de Castelton, au nord de Kingston (Jamaïque), dans une boue de souches de bambou.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (8 octobre 2022)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (8 octobre 2022) :
 Bryometopus Kahl, 1932
 Thylakidium Schewiakoff, 1892</t>
         </is>
@@ -638,9 +658,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Bryometopidae Jankowski, 1980[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Bryometopidae Jankowski, 1980.
 </t>
         </is>
       </c>
@@ -669,10 +691,12 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) A. Kahl. 1931. Urtiere oder Protozoa I : Wimpertiere oder Ciliata [Primitifs ou Protozoaires I : Ciliés ou Ciliata] (Infusoria) 2. Holotricha außer den im 1. Teil behandelten Prostomata. Tierwelt Dtl.,2l, 181-398.
-(de) A. Kahl. 1932. Urtiere oder Protozoa I : Wimpertiere oder Ciliata (Infusoria) 3. Spirotricha. Tierwelt Dtl., 25, 399-650[9].</t>
+(de) A. Kahl. 1932. Urtiere oder Protozoa I : Wimpertiere oder Ciliata (Infusoria) 3. Spirotricha. Tierwelt Dtl., 25, 399-650.</t>
         </is>
       </c>
     </row>
